--- a/public/static/xlsx/companies.xlsx
+++ b/public/static/xlsx/companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pzx5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9C8D7-D436-4EF4-A94E-A9AADBF517D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EF73EB-13EF-413E-91BC-FAED5735681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="1515" windowWidth="14310" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,16 @@
     <t>Название</t>
   </si>
   <si>
-    <t>Рецензия</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
     <t>ООО "Компания" 123456789111</t>
   </si>
   <si>
-    <t>Здесь может быть указана рецензия на компанию</t>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Здесь может быть указан review на компанию</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,10 +384,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -395,7 +395,7 @@
         <v>123456789111</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
